--- a/IMP_X_FDR/Resources/libraries/support_peplib3.xlsx
+++ b/IMP_X_FDR/Resources/libraries/support_peplib3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian.vasiu\Desktop\biopython-peplib3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian.vasiu\Desktop\florian code allmost compatible\local_software_3\v1.4\Resources\libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80FC1A9-FEB6-4A00-8D45-27C6155B6089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F395A-F390-4023-AFCD-604E598AA698}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>Group1</t>
   </si>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
         <v>54</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1079,87 +1079,87 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -1167,63 +1167,63 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -1231,63 +1231,63 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B89" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>31</v>
-      </c>
-      <c r="B92">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -1295,74 +1295,26 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" t="s">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>25</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
